--- a/apps/backend/public/data/ccf-bsc-subjects.xlsx
+++ b/apps/backend/public/data/ccf-bsc-subjects.xlsx
@@ -47,10 +47,10 @@
     <t>Specialization</t>
   </si>
   <si>
-    <t>Subject Type</t>
-  </si>
-  <si>
-    <t>Subject Name</t>
+    <t>Subject Type as per Marksheet</t>
+  </si>
+  <si>
+    <t>Subject Code as per Marksheet</t>
   </si>
   <si>
     <t>Credit</t>
@@ -973,7 +973,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -982,6 +982,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1538,7 +1541,7 @@
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1547,7 +1550,7 @@
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" ht="29" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1566,10 +1569,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1596,7 +1599,7 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1615,16 +1618,16 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>4</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="5"/>
       <c r="K2" s="2">
         <v>75</v>
       </c>
@@ -1654,16 +1657,16 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <v>4</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="2">
         <v>75</v>
       </c>
@@ -1693,16 +1696,16 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <v>4</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="2">
         <v>75</v>
       </c>
@@ -1732,16 +1735,16 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <v>4</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="2">
         <v>75</v>
       </c>
@@ -1771,16 +1774,16 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="H6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="5">
         <v>4</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="5"/>
       <c r="K6" s="2">
         <v>75</v>
       </c>
@@ -1810,16 +1813,16 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="5">
         <v>4</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="5"/>
       <c r="K7" s="2">
         <v>75</v>
       </c>
@@ -1849,16 +1852,16 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="5">
         <v>4</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="5"/>
       <c r="K8" s="2">
         <v>75</v>
       </c>
@@ -1888,16 +1891,16 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="5">
         <v>4</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="5"/>
       <c r="K9" s="2">
         <v>75</v>
       </c>
@@ -1927,16 +1930,16 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="5">
         <v>4</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="5"/>
       <c r="K10" s="2">
         <v>75</v>
       </c>
@@ -1966,16 +1969,16 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="5">
         <v>4</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="5"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2">
@@ -2003,16 +2006,16 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="5">
         <v>4</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="5"/>
       <c r="K12" s="2">
         <v>75</v>
       </c>
@@ -2042,16 +2045,16 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="5">
         <v>4</v>
       </c>
-      <c r="J13" s="4"/>
+      <c r="J13" s="5"/>
       <c r="K13" s="2">
         <v>75</v>
       </c>
@@ -2081,16 +2084,16 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="5">
         <v>4</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="5"/>
       <c r="K14" s="2">
         <v>75</v>
       </c>
@@ -2122,16 +2125,16 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="5">
         <v>4</v>
       </c>
-      <c r="J15" s="4"/>
+      <c r="J15" s="5"/>
       <c r="K15" s="2">
         <v>75</v>
       </c>
@@ -2161,16 +2164,16 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="5">
         <v>3</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="5"/>
       <c r="K16" s="2">
         <v>50</v>
       </c>
@@ -2200,16 +2203,16 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="5">
         <v>3</v>
       </c>
-      <c r="J17" s="4"/>
+      <c r="J17" s="5"/>
       <c r="K17" s="2">
         <v>50</v>
       </c>
@@ -2239,16 +2242,16 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="5">
         <v>3</v>
       </c>
-      <c r="J18" s="4"/>
+      <c r="J18" s="5"/>
       <c r="K18" s="2">
         <v>50</v>
       </c>
@@ -2278,16 +2281,16 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="5">
         <v>3</v>
       </c>
-      <c r="J19" s="4"/>
+      <c r="J19" s="5"/>
       <c r="K19" s="2">
         <v>50</v>
       </c>
@@ -2317,16 +2320,16 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="5">
         <v>3</v>
       </c>
-      <c r="J20" s="4"/>
+      <c r="J20" s="5"/>
       <c r="K20" s="2">
         <v>50</v>
       </c>
@@ -2356,16 +2359,16 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="5">
         <v>3</v>
       </c>
-      <c r="J21" s="4"/>
+      <c r="J21" s="5"/>
       <c r="K21" s="2">
         <v>50</v>
       </c>
@@ -2395,10 +2398,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I22" s="2">
@@ -2434,10 +2437,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="4" t="s">
         <v>46</v>
       </c>
       <c r="I23" s="2">
@@ -2473,10 +2476,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I24" s="2">
@@ -2512,10 +2515,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="4" t="s">
         <v>48</v>
       </c>
       <c r="I25" s="2">
@@ -2551,10 +2554,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="4" t="s">
         <v>49</v>
       </c>
       <c r="I26" s="2">
@@ -2590,10 +2593,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I27" s="2">
@@ -2629,10 +2632,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="4" t="s">
         <v>51</v>
       </c>
       <c r="I28" s="2">
@@ -2668,10 +2671,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="4" t="s">
         <v>52</v>
       </c>
       <c r="I29" s="2">
@@ -2707,10 +2710,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="4" t="s">
         <v>53</v>
       </c>
       <c r="I30" s="2">
@@ -2746,10 +2749,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="4" t="s">
         <v>54</v>
       </c>
       <c r="I31" s="2">
@@ -2785,10 +2788,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="4" t="s">
         <v>55</v>
       </c>
       <c r="I32" s="2">
@@ -2824,10 +2827,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="4" t="s">
         <v>56</v>
       </c>
       <c r="I33" s="2">
@@ -2863,16 +2866,16 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I34" s="4">
-        <v>2</v>
-      </c>
-      <c r="J34" s="4"/>
+      <c r="I34" s="5">
+        <v>2</v>
+      </c>
+      <c r="J34" s="5"/>
       <c r="K34" s="2">
         <v>50</v>
       </c>
@@ -2900,16 +2903,16 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I35" s="4">
-        <v>2</v>
-      </c>
-      <c r="J35" s="4"/>
+      <c r="I35" s="5">
+        <v>2</v>
+      </c>
+      <c r="J35" s="5"/>
       <c r="K35" s="2">
         <v>50</v>
       </c>
@@ -2937,16 +2940,16 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I36" s="4">
-        <v>2</v>
-      </c>
-      <c r="J36" s="4"/>
+      <c r="I36" s="5">
+        <v>2</v>
+      </c>
+      <c r="J36" s="5"/>
       <c r="K36" s="2">
         <v>50</v>
       </c>
@@ -2974,10 +2977,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="4" t="s">
         <v>62</v>
       </c>
       <c r="I37" s="2">
@@ -3013,10 +3016,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="4" t="s">
         <v>63</v>
       </c>
       <c r="I38" s="2">
@@ -3052,10 +3055,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I39" s="2">
@@ -3091,10 +3094,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="4" t="s">
         <v>65</v>
       </c>
       <c r="I40" s="2">
@@ -3130,10 +3133,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="4" t="s">
         <v>66</v>
       </c>
       <c r="I41" s="2">
@@ -3169,10 +3172,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="4" t="s">
         <v>67</v>
       </c>
       <c r="I42" s="2">
@@ -3208,10 +3211,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="4" t="s">
         <v>68</v>
       </c>
       <c r="I43" s="2">
@@ -3247,10 +3250,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I44" s="2">
@@ -3286,10 +3289,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="4" t="s">
         <v>70</v>
       </c>
       <c r="I45" s="2">
@@ -3325,10 +3328,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I46" s="2">
@@ -3362,10 +3365,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="4" t="s">
         <v>72</v>
       </c>
       <c r="I47" s="2">
@@ -3401,10 +3404,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="4" t="s">
         <v>73</v>
       </c>
       <c r="I48" s="2">
@@ -3440,10 +3443,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="4" t="s">
         <v>74</v>
       </c>
       <c r="I49" s="2">
@@ -3479,10 +3482,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I50" s="2">
@@ -3518,10 +3521,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="3" t="s">
+      <c r="G51" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I51" s="2">
@@ -3557,10 +3560,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="3" t="s">
+      <c r="G52" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="4" t="s">
         <v>77</v>
       </c>
       <c r="I52" s="2">
@@ -3596,10 +3599,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="4" t="s">
         <v>78</v>
       </c>
       <c r="I53" s="2">
@@ -3635,10 +3638,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="3" t="s">
+      <c r="G54" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H54" s="4" t="s">
         <v>79</v>
       </c>
       <c r="I54" s="2">
@@ -3674,10 +3677,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="3" t="s">
+      <c r="G55" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="4" t="s">
         <v>80</v>
       </c>
       <c r="I55" s="2">
@@ -3713,10 +3716,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="3" t="s">
+      <c r="G56" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H56" s="4" t="s">
         <v>81</v>
       </c>
       <c r="I56" s="2">
@@ -3752,10 +3755,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="3" t="s">
+      <c r="G57" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H57" s="4" t="s">
         <v>82</v>
       </c>
       <c r="I57" s="2">
@@ -3791,10 +3794,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="4" t="s">
         <v>83</v>
       </c>
       <c r="I58" s="2">
@@ -3830,10 +3833,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="3" t="s">
+      <c r="G59" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="H59" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I59" s="2">
@@ -3869,10 +3872,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="3" t="s">
+      <c r="G60" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="H60" s="4" t="s">
         <v>85</v>
       </c>
       <c r="I60" s="2">
@@ -3908,10 +3911,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-      <c r="G61" s="3" t="s">
+      <c r="G61" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H61" s="4" t="s">
         <v>86</v>
       </c>
       <c r="I61" s="2">
@@ -3947,10 +3950,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="3" t="s">
+      <c r="G62" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="H62" s="4" t="s">
         <v>87</v>
       </c>
       <c r="I62" s="2">
@@ -3986,10 +3989,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
-      <c r="G63" s="3" t="s">
+      <c r="G63" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="H63" s="4" t="s">
         <v>88</v>
       </c>
       <c r="I63" s="2">
@@ -4025,10 +4028,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="3" t="s">
+      <c r="G64" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="H64" s="4" t="s">
         <v>89</v>
       </c>
       <c r="I64" s="2">
@@ -4064,10 +4067,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
-      <c r="G65" s="3" t="s">
+      <c r="G65" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="H65" s="4" t="s">
         <v>90</v>
       </c>
       <c r="I65" s="2">
@@ -4103,10 +4106,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
-      <c r="G66" s="3" t="s">
+      <c r="G66" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="H66" s="4" t="s">
         <v>91</v>
       </c>
       <c r="I66" s="2">
@@ -4142,10 +4145,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
-      <c r="G67" s="3" t="s">
+      <c r="G67" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="H67" s="4" t="s">
         <v>92</v>
       </c>
       <c r="I67" s="2">
@@ -4181,10 +4184,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
-      <c r="G68" s="3" t="s">
+      <c r="G68" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="H68" s="4" t="s">
         <v>93</v>
       </c>
       <c r="I68" s="2">
@@ -4220,10 +4223,10 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
-      <c r="G69" s="3" t="s">
+      <c r="G69" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="H69" s="4" t="s">
         <v>94</v>
       </c>
       <c r="I69" s="2">
@@ -4257,10 +4260,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
-      <c r="G70" s="3" t="s">
+      <c r="G70" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H70" s="3" t="s">
+      <c r="H70" s="4" t="s">
         <v>95</v>
       </c>
       <c r="I70" s="2">
@@ -4294,10 +4297,10 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
-      <c r="G71" s="3" t="s">
+      <c r="G71" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="H71" s="4" t="s">
         <v>96</v>
       </c>
       <c r="I71" s="2">
@@ -4331,10 +4334,10 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
-      <c r="G72" s="3" t="s">
+      <c r="G72" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H72" s="3" t="s">
+      <c r="H72" s="4" t="s">
         <v>97</v>
       </c>
       <c r="I72" s="2">
@@ -4368,10 +4371,10 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
-      <c r="G73" s="3" t="s">
+      <c r="G73" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="H73" s="4" t="s">
         <v>98</v>
       </c>
       <c r="I73" s="2">
@@ -4405,10 +4408,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
-      <c r="G74" s="3" t="s">
+      <c r="G74" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="H74" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I74" s="2">

--- a/apps/backend/public/data/ccf-bsc-subjects.xlsx
+++ b/apps/backend/public/data/ccf-bsc-subjects.xlsx
@@ -47,7 +47,7 @@
     <t>Specialization</t>
   </si>
   <si>
-    <t>Subject Type as per Marksheet</t>
+    <t>Subject Name as per Marksheet (also in IRP)</t>
   </si>
   <si>
     <t>Subject Code as per Marksheet</t>
@@ -973,7 +973,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -982,6 +982,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1541,7 +1544,7 @@
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1572,7 +1575,7 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1599,7 +1602,7 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1618,16 +1621,16 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="6">
         <v>4</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="J2" s="6"/>
       <c r="K2" s="2">
         <v>75</v>
       </c>
@@ -1657,16 +1660,16 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="6">
         <v>4</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="2">
         <v>75</v>
       </c>
@@ -1696,16 +1699,16 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <v>4</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4" s="6"/>
       <c r="K4" s="2">
         <v>75</v>
       </c>
@@ -1735,16 +1738,16 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="6">
         <v>4</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="2">
         <v>75</v>
       </c>
@@ -1774,16 +1777,16 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="H6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="6">
         <v>4</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="2">
         <v>75</v>
       </c>
@@ -1813,16 +1816,16 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <v>4</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="6"/>
       <c r="K7" s="2">
         <v>75</v>
       </c>
@@ -1852,16 +1855,16 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="6">
         <v>4</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="J8" s="6"/>
       <c r="K8" s="2">
         <v>75</v>
       </c>
@@ -1891,16 +1894,16 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="6">
         <v>4</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="J9" s="6"/>
       <c r="K9" s="2">
         <v>75</v>
       </c>
@@ -1930,16 +1933,16 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="6">
         <v>4</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="J10" s="6"/>
       <c r="K10" s="2">
         <v>75</v>
       </c>
@@ -1969,16 +1972,16 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="6">
         <v>4</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="J11" s="6"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2">
@@ -2006,16 +2009,16 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="6">
         <v>4</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="J12" s="6"/>
       <c r="K12" s="2">
         <v>75</v>
       </c>
@@ -2045,16 +2048,16 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="6">
         <v>4</v>
       </c>
-      <c r="J13" s="5"/>
+      <c r="J13" s="6"/>
       <c r="K13" s="2">
         <v>75</v>
       </c>
@@ -2084,16 +2087,16 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="6">
         <v>4</v>
       </c>
-      <c r="J14" s="5"/>
+      <c r="J14" s="6"/>
       <c r="K14" s="2">
         <v>75</v>
       </c>
@@ -2125,16 +2128,16 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="6">
         <v>4</v>
       </c>
-      <c r="J15" s="5"/>
+      <c r="J15" s="6"/>
       <c r="K15" s="2">
         <v>75</v>
       </c>
@@ -2164,16 +2167,16 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="6">
         <v>3</v>
       </c>
-      <c r="J16" s="5"/>
+      <c r="J16" s="6"/>
       <c r="K16" s="2">
         <v>50</v>
       </c>
@@ -2203,16 +2206,16 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="6">
         <v>3</v>
       </c>
-      <c r="J17" s="5"/>
+      <c r="J17" s="6"/>
       <c r="K17" s="2">
         <v>50</v>
       </c>
@@ -2242,16 +2245,16 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="6">
         <v>3</v>
       </c>
-      <c r="J18" s="5"/>
+      <c r="J18" s="6"/>
       <c r="K18" s="2">
         <v>50</v>
       </c>
@@ -2281,16 +2284,16 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="6">
         <v>3</v>
       </c>
-      <c r="J19" s="5"/>
+      <c r="J19" s="6"/>
       <c r="K19" s="2">
         <v>50</v>
       </c>
@@ -2320,16 +2323,16 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="6">
         <v>3</v>
       </c>
-      <c r="J20" s="5"/>
+      <c r="J20" s="6"/>
       <c r="K20" s="2">
         <v>50</v>
       </c>
@@ -2359,16 +2362,16 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="6">
         <v>3</v>
       </c>
-      <c r="J21" s="5"/>
+      <c r="J21" s="6"/>
       <c r="K21" s="2">
         <v>50</v>
       </c>
@@ -2398,10 +2401,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="5" t="s">
         <v>45</v>
       </c>
       <c r="I22" s="2">
@@ -2437,10 +2440,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="5" t="s">
         <v>46</v>
       </c>
       <c r="I23" s="2">
@@ -2476,10 +2479,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="5" t="s">
         <v>47</v>
       </c>
       <c r="I24" s="2">
@@ -2515,10 +2518,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="5" t="s">
         <v>48</v>
       </c>
       <c r="I25" s="2">
@@ -2554,10 +2557,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="5" t="s">
         <v>49</v>
       </c>
       <c r="I26" s="2">
@@ -2593,10 +2596,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="5" t="s">
         <v>50</v>
       </c>
       <c r="I27" s="2">
@@ -2632,10 +2635,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I28" s="2">
@@ -2671,10 +2674,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="5" t="s">
         <v>52</v>
       </c>
       <c r="I29" s="2">
@@ -2710,10 +2713,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="5" t="s">
         <v>53</v>
       </c>
       <c r="I30" s="2">
@@ -2749,10 +2752,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="5" t="s">
         <v>54</v>
       </c>
       <c r="I31" s="2">
@@ -2788,10 +2791,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="5" t="s">
         <v>55</v>
       </c>
       <c r="I32" s="2">
@@ -2827,10 +2830,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="5" t="s">
         <v>56</v>
       </c>
       <c r="I33" s="2">
@@ -2866,16 +2869,16 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I34" s="5">
-        <v>2</v>
-      </c>
-      <c r="J34" s="5"/>
+      <c r="I34" s="6">
+        <v>2</v>
+      </c>
+      <c r="J34" s="6"/>
       <c r="K34" s="2">
         <v>50</v>
       </c>
@@ -2903,16 +2906,16 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I35" s="5">
-        <v>2</v>
-      </c>
-      <c r="J35" s="5"/>
+      <c r="I35" s="6">
+        <v>2</v>
+      </c>
+      <c r="J35" s="6"/>
       <c r="K35" s="2">
         <v>50</v>
       </c>
@@ -2940,16 +2943,16 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I36" s="5">
-        <v>2</v>
-      </c>
-      <c r="J36" s="5"/>
+      <c r="I36" s="6">
+        <v>2</v>
+      </c>
+      <c r="J36" s="6"/>
       <c r="K36" s="2">
         <v>50</v>
       </c>
@@ -2977,10 +2980,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="5" t="s">
         <v>62</v>
       </c>
       <c r="I37" s="2">
@@ -3016,10 +3019,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I38" s="2">
@@ -3055,10 +3058,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="5" t="s">
         <v>64</v>
       </c>
       <c r="I39" s="2">
@@ -3094,10 +3097,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="5" t="s">
         <v>65</v>
       </c>
       <c r="I40" s="2">
@@ -3133,10 +3136,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="5" t="s">
         <v>66</v>
       </c>
       <c r="I41" s="2">
@@ -3172,10 +3175,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="5" t="s">
         <v>67</v>
       </c>
       <c r="I42" s="2">
@@ -3211,10 +3214,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="5" t="s">
         <v>68</v>
       </c>
       <c r="I43" s="2">
@@ -3250,10 +3253,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="5" t="s">
         <v>69</v>
       </c>
       <c r="I44" s="2">
@@ -3289,10 +3292,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="4" t="s">
+      <c r="G45" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="5" t="s">
         <v>70</v>
       </c>
       <c r="I45" s="2">
@@ -3328,10 +3331,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="4" t="s">
+      <c r="G46" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H46" s="5" t="s">
         <v>71</v>
       </c>
       <c r="I46" s="2">
@@ -3365,10 +3368,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H47" s="5" t="s">
         <v>72</v>
       </c>
       <c r="I47" s="2">
@@ -3404,10 +3407,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="4" t="s">
+      <c r="G48" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H48" s="5" t="s">
         <v>73</v>
       </c>
       <c r="I48" s="2">
@@ -3443,10 +3446,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="4" t="s">
+      <c r="G49" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="5" t="s">
         <v>74</v>
       </c>
       <c r="I49" s="2">
@@ -3482,10 +3485,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="4" t="s">
+      <c r="G50" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="5" t="s">
         <v>75</v>
       </c>
       <c r="I50" s="2">
@@ -3521,10 +3524,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="4" t="s">
+      <c r="G51" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H51" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I51" s="2">
@@ -3560,10 +3563,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="4" t="s">
+      <c r="G52" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H52" s="5" t="s">
         <v>77</v>
       </c>
       <c r="I52" s="2">
@@ -3599,10 +3602,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="4" t="s">
+      <c r="G53" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H53" s="5" t="s">
         <v>78</v>
       </c>
       <c r="I53" s="2">
@@ -3638,10 +3641,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="4" t="s">
+      <c r="G54" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="H54" s="5" t="s">
         <v>79</v>
       </c>
       <c r="I54" s="2">
@@ -3677,10 +3680,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="4" t="s">
+      <c r="G55" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="H55" s="5" t="s">
         <v>80</v>
       </c>
       <c r="I55" s="2">
@@ -3716,10 +3719,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="4" t="s">
+      <c r="G56" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="H56" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I56" s="2">
@@ -3755,10 +3758,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="4" t="s">
+      <c r="G57" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="H57" s="5" t="s">
         <v>82</v>
       </c>
       <c r="I57" s="2">
@@ -3794,10 +3797,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="4" t="s">
+      <c r="G58" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="H58" s="5" t="s">
         <v>83</v>
       </c>
       <c r="I58" s="2">
@@ -3833,10 +3836,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="4" t="s">
+      <c r="G59" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="H59" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I59" s="2">
@@ -3872,10 +3875,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="4" t="s">
+      <c r="G60" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="H60" s="5" t="s">
         <v>85</v>
       </c>
       <c r="I60" s="2">
@@ -3911,10 +3914,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-      <c r="G61" s="4" t="s">
+      <c r="G61" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H61" s="5" t="s">
         <v>86</v>
       </c>
       <c r="I61" s="2">
@@ -3950,10 +3953,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="4" t="s">
+      <c r="G62" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H62" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I62" s="2">
@@ -3989,10 +3992,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
-      <c r="G63" s="4" t="s">
+      <c r="G63" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="H63" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I63" s="2">
@@ -4028,10 +4031,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="4" t="s">
+      <c r="G64" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="H64" s="5" t="s">
         <v>89</v>
       </c>
       <c r="I64" s="2">
@@ -4067,10 +4070,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
-      <c r="G65" s="4" t="s">
+      <c r="G65" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="H65" s="5" t="s">
         <v>90</v>
       </c>
       <c r="I65" s="2">
@@ -4106,10 +4109,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
-      <c r="G66" s="4" t="s">
+      <c r="G66" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H66" s="5" t="s">
         <v>91</v>
       </c>
       <c r="I66" s="2">
@@ -4145,10 +4148,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
-      <c r="G67" s="4" t="s">
+      <c r="G67" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="H67" s="5" t="s">
         <v>92</v>
       </c>
       <c r="I67" s="2">
@@ -4184,10 +4187,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
-      <c r="G68" s="4" t="s">
+      <c r="G68" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="H68" s="5" t="s">
         <v>93</v>
       </c>
       <c r="I68" s="2">
@@ -4223,10 +4226,10 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
-      <c r="G69" s="4" t="s">
+      <c r="G69" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="H69" s="5" t="s">
         <v>94</v>
       </c>
       <c r="I69" s="2">
@@ -4260,10 +4263,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
-      <c r="G70" s="4" t="s">
+      <c r="G70" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="H70" s="5" t="s">
         <v>95</v>
       </c>
       <c r="I70" s="2">
@@ -4297,10 +4300,10 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
-      <c r="G71" s="4" t="s">
+      <c r="G71" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="H71" s="5" t="s">
         <v>96</v>
       </c>
       <c r="I71" s="2">
@@ -4334,10 +4337,10 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
-      <c r="G72" s="4" t="s">
+      <c r="G72" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="H72" s="5" t="s">
         <v>97</v>
       </c>
       <c r="I72" s="2">
@@ -4371,10 +4374,10 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
-      <c r="G73" s="4" t="s">
+      <c r="G73" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="H73" s="5" t="s">
         <v>98</v>
       </c>
       <c r="I73" s="2">
@@ -4408,10 +4411,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
-      <c r="G74" s="4" t="s">
+      <c r="G74" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H74" s="4" t="s">
+      <c r="H74" s="5" t="s">
         <v>100</v>
       </c>
       <c r="I74" s="2">
